--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://volkswagengroup-my.sharepoint.com/personal/inigo_ullate_vw-navarra_es/Documents/Escritorio/asignador_personal/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_A848E393E689BE042EF30DB4C4BD48E17556897A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB77C3F9-FFD6-4EA7-BA0B-65342D322F8C}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="242">
   <si>
     <t>NIE</t>
   </si>
@@ -384,18 +406,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, sans-serif"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>SESMA LLAMO, Pablo</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -427,26 +450,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, sans-serif"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">MANRIQUE PEREZ, Fermin </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -457,26 +482,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, sans-serif"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>OSES ARTEAGA, Ivan</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -487,26 +514,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, sans-serif"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>SANTOS ELIA, Ignacio</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -520,18 +549,19 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, sans-serif"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">GAMEZ RUIZ, Markel    </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -555,9 +585,6 @@
     <t>COSCOLIN SERRANO, Maite</t>
   </si>
   <si>
-    <t>4.4, 4.6, 5.11</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIGNA MENDEZ, Vladimir  </t>
   </si>
   <si>
@@ -823,57 +850,107 @@
   </si>
   <si>
     <t>LARRAYOZ OYARZUN, EDURNE</t>
+  </si>
+  <si>
+    <t>4.4, 4.6 Comisionado, 5.11</t>
+  </si>
+  <si>
+    <t>DEL OLMO JUNGUITU, Maria Concepción</t>
+  </si>
+  <si>
+    <t>BERENGUER SANTOS, FCO, JAVIER</t>
+  </si>
+  <si>
+    <t>Zona 2, Eje H</t>
+  </si>
+  <si>
+    <t>SANCHEZ GARRO, Jesus-Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPANON FRANCO, Tomas  </t>
+  </si>
+  <si>
+    <t>CASQUETE SOL, Mª-Isabel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -881,7 +958,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -903,7 +980,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -917,180 +1000,160 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1280,25 +1343,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="29.88"/>
-    <col customWidth="1" min="4" max="4" width="33.38"/>
-    <col customWidth="1" min="5" max="5" width="33.5"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="4" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,9 +1382,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>606452.0</v>
+        <v>606452</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1332,9 +1399,9 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>606235.0</v>
+        <v>606235</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -1349,9 +1416,9 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <v>602259.0</v>
+        <v>602259</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>10</v>
@@ -1366,9 +1433,9 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>604297.0</v>
+        <v>604297</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1385,9 +1452,9 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <v>604737.0</v>
+        <v>604737</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -1404,9 +1471,9 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <v>605852.0</v>
+        <v>605852</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -1414,7 +1481,7 @@
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1423,9 +1490,9 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8">
-      <c r="A8" s="12">
-        <v>606094.0</v>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="11">
+        <v>606094</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>19</v>
@@ -1433,7 +1500,7 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1442,9 +1509,9 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9">
-      <c r="A9" s="12">
-        <v>600150.0</v>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="11">
+        <v>600150</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>22</v>
@@ -1452,7 +1519,7 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1461,9 +1528,9 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3">
-        <v>52308.0</v>
+        <v>52308</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
@@ -1471,7 +1538,7 @@
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1480,1485 +1547,1579 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11">
-      <c r="A11" s="13">
-        <v>605754.0</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="12">
+        <v>605754</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12">
-      <c r="A12" s="18">
-        <v>601814.0</v>
-      </c>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="17">
+        <v>601814</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13">
-      <c r="A13" s="21">
-        <v>602418.0</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="20">
+        <v>602418</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14">
-      <c r="A14" s="21">
-        <v>601334.0</v>
-      </c>
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="20">
+        <v>601334</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="21">
-        <v>604507.0</v>
-      </c>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="20">
+        <v>604507</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="21">
-        <v>601999.0</v>
-      </c>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="20">
+        <v>601999</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="21">
-        <v>604681.0</v>
-      </c>
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="20">
+        <v>604681</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="21">
-        <v>605400.0</v>
-      </c>
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="20">
+        <v>605400</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="21">
-        <v>602228.0</v>
-      </c>
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="20">
+        <v>602228</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="21">
-        <v>606235.0</v>
-      </c>
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="20">
+        <v>606235</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="23">
-        <v>601767.0</v>
-      </c>
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="22">
+        <v>601767</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="26">
-        <v>605767.0</v>
-      </c>
-      <c r="B22" s="27" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="25">
+        <v>605767</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="26">
-        <v>605826.0</v>
-      </c>
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="25">
+        <v>605826</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="26">
-        <v>603125.0</v>
-      </c>
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="25">
+        <v>603125</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="26">
-        <v>602390.0</v>
-      </c>
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="25">
+        <v>602390</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="26">
-        <v>605874.0</v>
-      </c>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="25">
+        <v>605874</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="26">
-        <v>604545.0</v>
-      </c>
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="25">
+        <v>604545</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="26">
-        <v>602394.0</v>
-      </c>
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="25">
+        <v>602394</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="26">
-        <v>603662.0</v>
-      </c>
-      <c r="B29" s="27" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="25">
+        <v>603662</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="26">
-        <v>606061.0</v>
-      </c>
-      <c r="B30" s="27" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="25">
+        <v>606061</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="26">
-        <v>603885.0</v>
-      </c>
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="25">
+        <v>603885</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="29">
-        <v>604724.0</v>
-      </c>
-      <c r="B32" s="30" t="s">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="28">
+        <v>604724</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="3">
-        <v>601691.0</v>
+        <v>601691</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="3">
-        <v>604051.0</v>
+        <v>604051</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="3">
-        <v>605090.0</v>
+        <v>602355</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="3">
+        <v>603012</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="3">
+        <v>13457</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="3">
+        <v>602497</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="3">
+        <v>605090</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E39" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="32">
-        <v>604696.0</v>
-      </c>
-      <c r="B36" s="14" t="s">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="31">
+        <v>604696</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="21">
-        <v>601854.0</v>
-      </c>
-      <c r="B37" s="22" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="20">
+        <v>601854</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="21">
-        <v>602201.0</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="20">
+        <v>602201</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="21">
-        <v>600752.0</v>
-      </c>
-      <c r="B39" s="22" t="s">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="20">
+        <v>600752</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E43" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="21">
-        <v>605877.0</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="20">
+        <v>605877</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="21">
-        <v>604498.0</v>
-      </c>
-      <c r="B41" s="22" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="20">
+        <v>604498</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="21">
-        <v>605352.0</v>
-      </c>
-      <c r="B42" s="22" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="20">
+        <v>605352</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="33">
-        <v>47980.0</v>
-      </c>
-      <c r="B43" s="34" t="s">
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="22">
+        <v>47980</v>
+      </c>
+      <c r="B47" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E47" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="26">
-        <v>604636.0</v>
-      </c>
-      <c r="B44" s="27" t="s">
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="25">
+        <v>604636</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D48" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E48" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="26">
-        <v>605498.0</v>
-      </c>
-      <c r="B45" s="27" t="s">
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="25">
+        <v>605498</v>
+      </c>
+      <c r="B49" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E49" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="26">
-        <v>606231.0</v>
-      </c>
-      <c r="B46" s="27" t="s">
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="25">
+        <v>606231</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C50" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E50" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="26">
-        <v>600439.0</v>
-      </c>
-      <c r="B47" s="27" t="s">
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="25">
+        <v>602829</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="25">
+        <v>600439</v>
+      </c>
+      <c r="B52" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C52" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E52" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="26">
-        <v>604616.0</v>
-      </c>
-      <c r="B48" s="27" t="s">
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="25">
+        <v>604616</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D53" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E53" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="26">
-        <v>602514.0</v>
-      </c>
-      <c r="B49" s="27" t="s">
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="25">
+        <v>602514</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C54" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E54" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="26">
-        <v>605519.0</v>
-      </c>
-      <c r="B50" s="27" t="s">
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="25">
+        <v>605519</v>
+      </c>
+      <c r="B55" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E55" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="26">
-        <v>602264.0</v>
-      </c>
-      <c r="B51" s="27" t="s">
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="25">
+        <v>602264</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C56" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E56" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="26">
-        <v>603268.0</v>
-      </c>
-      <c r="B52" s="35" t="s">
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="25">
+        <v>603268</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C57" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E57" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="29">
-        <v>604771.0</v>
-      </c>
-      <c r="B53" s="30" t="s">
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="28">
+        <v>604771</v>
+      </c>
+      <c r="B58" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C58" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D58" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E58" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3">
-        <v>602663.0</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="3">
+        <v>602663</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C59" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D59" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3">
-        <v>601830.0</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="3">
+        <v>601830</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E60" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="3">
+        <v>602341</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3">
-        <v>602341.0</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="C61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="11" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="3">
+        <v>605276</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="3">
+        <v>605651</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="3">
+        <v>605169</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15">
+      <c r="A65" s="3">
+        <v>605355</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15">
+      <c r="A66" s="31">
+        <v>604717</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15">
+      <c r="A67" s="20">
+        <v>602204</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3">
-        <v>605276.0</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3">
-        <v>605651.0</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3">
-        <v>605169.0</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="D67" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15">
+      <c r="A68" s="20">
+        <v>604910</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15">
+      <c r="A69" s="20">
+        <v>603604</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15">
+      <c r="A70" s="20">
+        <v>42241</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15">
+      <c r="A71" s="20">
+        <v>605156</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="20">
+        <v>602559</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" s="35"/>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="20">
+        <v>605850</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="20">
+        <v>602094</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="22">
+        <v>605905</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15">
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" spans="1:7" ht="15">
+      <c r="A77" s="25">
+        <v>52983</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15">
+      <c r="A78" s="25">
+        <v>600168</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15">
+      <c r="A79" s="25">
+        <v>601079</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
+      <c r="A80" s="25">
+        <v>602606</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="25">
+        <v>603829</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="25">
+        <v>601864</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="25">
+        <v>605397</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="25">
+        <v>37065</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="25">
+        <v>602337</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="25">
+        <v>604825</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="28">
+        <v>601587</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="3">
+        <v>606139</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="3">
+        <v>605304</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="3">
+        <v>605104</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3">
-        <v>605355.0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="32">
-        <v>604717.0</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="21">
-        <v>602204.0</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="21">
-        <v>604910.0</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="21">
-        <v>603604.0</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="21">
-        <v>42241.0</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="21">
-        <v>605156.0</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="21">
-        <v>602559.0</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="G67" s="38"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="21">
-        <v>605850.0</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="21">
-        <v>602094.0</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="33">
-        <v>605905.0</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="26">
-        <v>52983.0</v>
-      </c>
-      <c r="B72" s="27" t="s">
+      <c r="E90" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="3">
+        <v>39165</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="E91" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="3">
+        <v>46639</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="26">
-        <v>600168.0</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="28" t="s">
+      <c r="D92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="3">
+        <v>55078</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="26">
-        <v>601079.0</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="28" t="s">
+      <c r="D93" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="3">
+        <v>601144</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="26">
-        <v>602606.0</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="45" t="s">
+      <c r="D94" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="3">
+        <v>601749</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="26">
-        <v>603829.0</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="46" t="s">
+      <c r="D95" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="3">
+        <v>602123</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="26">
-        <v>601864.0</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="46" t="s">
+      <c r="D96" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="3">
+        <v>602232</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D77" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="26">
-        <v>605397.0</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="45" t="s">
+      <c r="D97" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="3">
+        <v>602321</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D78" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E78" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="26">
-        <v>37065.0</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="45" t="s">
+      <c r="D98" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="3">
+        <v>602775</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="26">
-        <v>602337.0</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="45" t="s">
+      <c r="D99" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="3">
+        <v>603425</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="26">
-        <v>604825.0</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="45" t="s">
+      <c r="D100" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="3">
+        <v>604052</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="29">
-        <v>601587.0</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="47" t="s">
+      <c r="D101" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="31">
+        <v>604709</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D82" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="3">
-        <v>606139.0</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3">
-        <v>605304.0</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3">
-        <v>605104.0</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3">
-        <v>39165.0</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3">
-        <v>46639.0</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="D102" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E102" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3">
-        <v>55078.0</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="3">
-        <v>601144.0</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="3">
-        <v>601749.0</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="3">
-        <v>602123.0</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3">
-        <v>602232.0</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3">
-        <v>602321.0</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3">
-        <v>602775.0</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3">
-        <v>603425.0</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3">
-        <v>604052.0</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="32">
-        <v>604709.0</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>219</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b1c9b508-7c6e-42bd-bedf-808292653d6c}" enabled="1" method="Standard" siteId="{2882be50-2012-4d88-ac86-544124e120c8}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://volkswagengroup-my.sharepoint.com/personal/inigo_ullate_vw-navarra_es/Documents/Escritorio/asignador_personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DD5F62W\OneDrive - Volkswagen AG\Escritorio\MIS COSAS\MFQ\asignador_personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_B690E29F61E97B09A0F20DB4C4245860547C0907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE827AD-338F-46D0-8C40-926A425BA241}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085A1AB-0A93-44E1-92F5-BABE218F5822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="244">
   <si>
     <t>NIE</t>
   </si>
@@ -242,16 +242,7 @@
     <t>Zona 1, Zona 5</t>
   </si>
   <si>
-    <t>1.5, 5.3, 5.11</t>
-  </si>
-  <si>
     <t>GOÑI DEL CERRO,Saday</t>
-  </si>
-  <si>
-    <t>GONZALEZ LÓPEZ, Odei</t>
-  </si>
-  <si>
-    <t>1.4, 1.11</t>
   </si>
   <si>
     <t>LÓPEZ ZARO, Victor</t>
@@ -854,12 +845,45 @@
   <si>
     <t>4.9</t>
   </si>
+  <si>
+    <t>BURGOS CORDERO, Jonatan</t>
+  </si>
+  <si>
+    <t>Conducir</t>
+  </si>
+  <si>
+    <t>ALBERO VALENCIA, Diego</t>
+  </si>
+  <si>
+    <t>KAMENOV SABINOV, Mihail</t>
+  </si>
+  <si>
+    <t>SALCEDO FERNANDEZ, Pablo</t>
+  </si>
+  <si>
+    <t>1.5, 5.3, 5.11, Cinturones</t>
+  </si>
+  <si>
+    <t>Zona 1, Zona 2, Zona 5</t>
+  </si>
+  <si>
+    <t>Pilotos</t>
+  </si>
+  <si>
+    <t>4.1, 4.2, 5.1</t>
+  </si>
+  <si>
+    <t>Pedalera</t>
+  </si>
+  <si>
+    <t>Bombas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -933,6 +957,12 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1332,10 +1362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1344,7 +1374,7 @@
     <col min="4" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -1501,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
@@ -1751,10 +1781,10 @@
         <v>55</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -1819,10 +1849,10 @@
         <v>55</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
@@ -1830,7 +1860,7 @@
         <v>604545</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>55</v>
@@ -1844,16 +1874,16 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="25">
-        <v>602394</v>
+        <v>603662</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>72</v>
@@ -1861,7 +1891,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="25">
-        <v>603662</v>
+        <v>606061</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>73</v>
@@ -1878,1154 +1908,1206 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="25">
-        <v>606061</v>
+        <v>605875</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="25">
-        <v>603885</v>
+        <v>605029</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="25">
+        <v>607142</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="25">
+        <v>605826</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="25">
+        <v>603885</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="28">
+        <v>604724</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E36" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="28">
-        <v>604724</v>
-      </c>
-      <c r="B33" s="29" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="3">
+        <v>601691</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="C37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E37" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>601691</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="3">
+        <v>604051</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>604051</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="3">
+        <v>605090</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>605090</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="12">
+        <v>604696</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="12">
-        <v>604696</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="20">
-        <v>601854</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="20">
-        <v>602201</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="20">
-        <v>600752</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>103</v>
+      <c r="D40" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="20">
-        <v>605877</v>
+        <v>601854</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="20">
+        <v>602201</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="20">
+        <v>600752</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="20">
+        <v>605877</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="20">
         <v>604498</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B45" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="20">
+        <v>605352</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="C46" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E46" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="20">
-        <v>605352</v>
-      </c>
-      <c r="B43" s="21" t="s">
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="22">
+        <v>47980</v>
+      </c>
+      <c r="B47" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="C47" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="22">
-        <v>47980</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="25">
-        <v>604636</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="25">
-        <v>605498</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="25">
-        <v>606231</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15">
       <c r="A48" s="25">
-        <v>600439</v>
+        <v>604636</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15">
       <c r="A49" s="25">
-        <v>604616</v>
+        <v>605498</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15">
       <c r="A50" s="25">
-        <v>602514</v>
+        <v>606231</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15">
       <c r="A51" s="25">
-        <v>605519</v>
+        <v>600439</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15">
       <c r="A52" s="25">
-        <v>602264</v>
+        <v>604616</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15">
       <c r="A53" s="25">
-        <v>603268</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>29</v>
+        <v>602514</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="25">
+        <v>605519</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E54" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="25">
+        <v>602264</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="25">
+        <v>603268</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="28">
+      <c r="E56" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="28">
         <v>604771</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="30" t="s">
+      <c r="B57" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="3">
-        <v>602663</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="3">
-        <v>601830</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="3">
-        <v>602341</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>143</v>
+      <c r="D57" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15">
       <c r="A58" s="3">
-        <v>605276</v>
+        <v>602663</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15">
       <c r="A59" s="3">
-        <v>605651</v>
+        <v>601830</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15">
       <c r="A60" s="3">
-        <v>605169</v>
+        <v>602341</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15">
       <c r="A61" s="3">
+        <v>605276</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="3">
+        <v>605651</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="3">
+        <v>605169</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="3">
         <v>605355</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15">
+      <c r="A65" s="12">
+        <v>604717</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C65" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="12">
-        <v>604717</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="20">
-        <v>602204</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="20">
-        <v>604910</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15">
-      <c r="A65" s="20">
-        <v>603604</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15">
       <c r="A66" s="20">
-        <v>42241</v>
+        <v>602204</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15">
       <c r="A67" s="20">
-        <v>605156</v>
+        <v>604910</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15">
       <c r="A68" s="20">
-        <v>602559</v>
+        <v>603604</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="34"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="15">
       <c r="A69" s="20">
-        <v>605850</v>
+        <v>42241</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15">
       <c r="A70" s="20">
+        <v>605156</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15">
+      <c r="A71" s="20">
+        <v>602559</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="34"/>
+    </row>
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="20">
+        <v>605850</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="20">
         <v>602094</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B73" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="22">
+        <v>605905</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="19" t="s">
+    </row>
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15">
-      <c r="A71" s="22">
-        <v>605905</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
-    </row>
-    <row r="73" spans="1:7" ht="15">
-      <c r="A73" s="25">
-        <v>52983</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15">
-      <c r="A74" s="25">
-        <v>600168</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15">
-      <c r="A75" s="25">
-        <v>601079</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>189</v>
-      </c>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:7" ht="15">
       <c r="A76" s="25">
-        <v>602606</v>
+        <v>52983</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15">
       <c r="A77" s="25">
-        <v>603829</v>
+        <v>600168</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="40" t="s">
         <v>183</v>
       </c>
+      <c r="C77" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="D77" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="27" t="s">
         <v>184</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15">
       <c r="A78" s="25">
-        <v>601864</v>
+        <v>601079</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15">
       <c r="A79" s="25">
-        <v>605397</v>
+        <v>602606</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15">
       <c r="A80" s="25">
-        <v>37065</v>
+        <v>603829</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15">
       <c r="A81" s="25">
-        <v>602337</v>
+        <v>601864</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15">
       <c r="A82" s="25">
+        <v>605397</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="25">
+        <v>37065</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="25">
+        <v>602337</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="25">
         <v>604825</v>
       </c>
-      <c r="B82" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="28">
+      <c r="B85" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="28">
         <v>601587</v>
       </c>
-      <c r="B83" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="3">
-        <v>606139</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="3">
-        <v>605304</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="3">
-        <v>605104</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>210</v>
+      <c r="B86" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15">
       <c r="A87" s="3">
-        <v>39165</v>
+        <v>606139</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15">
       <c r="A88" s="3">
-        <v>46639</v>
+        <v>605304</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15">
       <c r="A89" s="3">
-        <v>55078</v>
+        <v>605104</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15">
       <c r="A90" s="3">
-        <v>601144</v>
+        <v>39165</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15">
       <c r="A91" s="3">
-        <v>601749</v>
+        <v>46639</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15">
       <c r="A92" s="3">
-        <v>602123</v>
+        <v>55078</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15">
       <c r="A93" s="3">
-        <v>602232</v>
+        <v>601144</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15">
       <c r="A94" s="3">
-        <v>602321</v>
+        <v>601749</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15">
       <c r="A95" s="3">
-        <v>602775</v>
+        <v>602123</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15">
       <c r="A96" s="3">
-        <v>603425</v>
+        <v>602232</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15">
       <c r="A97" s="3">
+        <v>602321</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="3">
+        <v>602775</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="3">
+        <v>603425</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="3">
         <v>604052</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="12">
+      <c r="B100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="12">
         <v>604709</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>214</v>
+      <c r="B101" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;8&amp;K000000 INTERNAL&amp;1#_x000D_</oddHeader>

--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DD5F62W\OneDrive - Volkswagen AG\Escritorio\MIS COSAS\MFQ\asignador_personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085A1AB-0A93-44E1-92F5-BABE218F5822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84678BD-7011-498E-B39B-5813B70AE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="271">
   <si>
     <t>NIE</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>AZCONA PRIMICIA, Alex</t>
-  </si>
-  <si>
-    <t>Cinturones</t>
   </si>
   <si>
     <t>LAMELA LARRETA, Pedro</t>
@@ -849,9 +846,6 @@
     <t>BURGOS CORDERO, Jonatan</t>
   </si>
   <si>
-    <t>Conducir</t>
-  </si>
-  <si>
     <t>ALBERO VALENCIA, Diego</t>
   </si>
   <si>
@@ -861,12 +855,6 @@
     <t>SALCEDO FERNANDEZ, Pablo</t>
   </si>
   <si>
-    <t>1.5, 5.3, 5.11, Cinturones</t>
-  </si>
-  <si>
-    <t>Zona 1, Zona 2, Zona 5</t>
-  </si>
-  <si>
     <t>Pilotos</t>
   </si>
   <si>
@@ -877,6 +865,99 @@
   </si>
   <si>
     <t>Bombas</t>
+  </si>
+  <si>
+    <t>TW+</t>
+  </si>
+  <si>
+    <t>ROYO SANCHEZ JANA</t>
+  </si>
+  <si>
+    <t>7.6, TW2</t>
+  </si>
+  <si>
+    <t>FRANCO TRIGUERO, JENNIFER</t>
+  </si>
+  <si>
+    <t>NUÑEZ MANTECON RUBEN</t>
+  </si>
+  <si>
+    <t>SOLANO MARTINEZ DAVID</t>
+  </si>
+  <si>
+    <t>Cinturones, 4.9, Grupo 5</t>
+  </si>
+  <si>
+    <t>Zona 2, Zona 4, Puertas</t>
+  </si>
+  <si>
+    <t>Zona 1, Zona 2, Zona 5, Puertas</t>
+  </si>
+  <si>
+    <t>1.5, 5.3, 5.11, Cinturones, Grupo 4</t>
+  </si>
+  <si>
+    <t>Zona 1, Motores</t>
+  </si>
+  <si>
+    <t>Zona 5, Motores</t>
+  </si>
+  <si>
+    <t>1.1, Palieres</t>
+  </si>
+  <si>
+    <t>7.2, Consola</t>
+  </si>
+  <si>
+    <t>5.3, Radiador</t>
+  </si>
+  <si>
+    <t>Zona 8, Zona 7, Puertas</t>
+  </si>
+  <si>
+    <t>Conducir, Llenados, Grupo 7</t>
+  </si>
+  <si>
+    <t>LACUNZA GRAU MIRIAM</t>
+  </si>
+  <si>
+    <t>MAULEON AUSEJO NAHIA</t>
+  </si>
+  <si>
+    <t>MUÑOZ CHUPS ADRIAN</t>
+  </si>
+  <si>
+    <t>Zona 2, Puertas</t>
+  </si>
+  <si>
+    <t>Zona 8, Puertas</t>
+  </si>
+  <si>
+    <t>1.8, Palieres</t>
+  </si>
+  <si>
+    <t>8.3, Cajetines</t>
+  </si>
+  <si>
+    <t>2.2, Cristales</t>
+  </si>
+  <si>
+    <t>BATUECAS BATUECAS NEREA</t>
+  </si>
+  <si>
+    <t>CACERES VAREA ESTEFANIA</t>
+  </si>
+  <si>
+    <t>4.2, Radiador</t>
+  </si>
+  <si>
+    <t>4.8, Consola</t>
+  </si>
+  <si>
+    <t>ALEJOS CELAYA JENIFER</t>
+  </si>
+  <si>
+    <t>2.5, TW2</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,8 +1071,32 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1043,11 +1148,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1144,6 +1333,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,10 +1584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1477,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -1531,15 +1753,15 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="3">
         <v>52308</v>
       </c>
@@ -1559,1551 +1781,1732 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>605754</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
+      <c r="A11" s="47">
+        <v>604966</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>241</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="12">
-        <v>603268</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="11">
+        <v>605754</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>30</v>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="17">
-        <v>601814</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>33</v>
+      <c r="A13" s="12">
+        <v>603268</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="20">
-        <v>602418</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>34</v>
+      <c r="A14" s="17">
+        <v>601814</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="20">
-        <v>601334</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>37</v>
+        <v>602418</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="20">
-        <v>604507</v>
+        <v>601334</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="20">
-        <v>601999</v>
+        <v>604507</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="20">
-        <v>604681</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>45</v>
+        <v>601999</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="20">
-        <v>605400</v>
+        <v>604681</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="20">
-        <v>602228</v>
+        <v>605400</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="20">
-        <v>606235</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>54</v>
+        <v>602228</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="49">
+        <v>605650</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="49">
+        <v>602703</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="49">
+        <v>605732</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="20">
+        <v>606235</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="22">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="22">
         <v>601767</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="25">
-        <v>605767</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="25">
-        <v>605826</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="25">
-        <v>603125</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="25">
-        <v>602390</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="25">
-        <v>605874</v>
+        <v>605767</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="25">
-        <v>604545</v>
+        <v>605826</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="25">
-        <v>603662</v>
+        <v>603125</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="25">
-        <v>606061</v>
+        <v>602390</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="25">
-        <v>605875</v>
+        <v>605874</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>233</v>
+        <v>66</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="25">
-        <v>605029</v>
+        <v>604545</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="25">
-        <v>607142</v>
+        <v>603662</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="25">
-        <v>605826</v>
+        <v>606061</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="25">
-        <v>603885</v>
+        <v>605875</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="25">
+        <v>605029</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="25">
+        <v>607142</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="25">
+        <v>605826</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="25">
+        <v>603885</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="27" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="28">
+        <v>604724</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="28">
-        <v>604724</v>
-      </c>
-      <c r="B36" s="29" t="s">
+      <c r="C40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="E40" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="30" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="3">
+        <v>601691</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>601691</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="3">
+        <v>604051</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>604051</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E42" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="3">
+        <v>605090</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>605090</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="D43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="12">
+        <v>604696</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="12">
-        <v>604696</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="20">
-        <v>601854</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="20">
-        <v>602201</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="20">
-        <v>600752</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="20">
-        <v>605877</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>103</v>
+      <c r="D44" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="20">
+        <v>601854</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="20">
+        <v>602201</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="20">
+        <v>600752</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="51">
+        <v>605341</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="51">
+        <v>605749</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="51">
+        <v>605751</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="20">
+        <v>605877</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="20">
         <v>604498</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B52" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="E52" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="19" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="20">
+        <v>605352</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="20">
-        <v>605352</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="C53" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="19" t="s">
+      <c r="E53" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="19" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="22">
+        <v>47980</v>
+      </c>
+      <c r="B54" s="31" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="22">
-        <v>47980</v>
-      </c>
-      <c r="B47" s="31" t="s">
+      <c r="C54" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="25">
-        <v>604636</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="25">
-        <v>605498</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="25">
-        <v>606231</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="25">
-        <v>600439</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="25">
-        <v>604616</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="25">
-        <v>602514</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="25">
-        <v>605519</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15">
       <c r="A55" s="25">
-        <v>602264</v>
+        <v>604636</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15">
       <c r="A56" s="25">
-        <v>603268</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>29</v>
+        <v>605498</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="25">
+        <v>606231</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="51">
+        <v>603464</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="51">
+        <v>605394</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="25">
+        <v>600439</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="25">
+        <v>604616</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="25">
+        <v>602514</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="25">
+        <v>605519</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E63" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="25">
+        <v>602264</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="25">
+        <v>603268</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="28">
+      <c r="E65" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="28">
         <v>604771</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B66" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="30" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="3">
+        <v>602663</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="3">
-        <v>602663</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="3">
+        <v>601830</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="3">
-        <v>601830</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="C68" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="6" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="3">
+        <v>602341</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="3">
-        <v>602341</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="C69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="6" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="3">
+        <v>605276</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" thickBot="1">
+      <c r="A71" s="53">
+        <v>605854</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="3">
+        <v>605651</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="3">
+        <v>605169</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="3">
+        <v>605355</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="12">
+        <v>604717</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="20">
+        <v>602204</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="3">
-        <v>605276</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="3">
-        <v>605651</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="3">
-        <v>605169</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="3">
-        <v>605355</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15">
-      <c r="A65" s="12">
-        <v>604717</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15">
-      <c r="A66" s="20">
-        <v>602204</v>
-      </c>
-      <c r="B66" s="21" t="s">
+      <c r="D76" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="E76" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="20">
+        <v>604910</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15">
-      <c r="A67" s="20">
-        <v>604910</v>
-      </c>
-      <c r="B67" s="21" t="s">
+      <c r="D77" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="E77" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="20">
+        <v>603604</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15">
-      <c r="A68" s="20">
-        <v>603604</v>
-      </c>
-      <c r="B68" s="21" t="s">
+      <c r="D78" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="E78" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="20">
+        <v>42241</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15">
-      <c r="A69" s="20">
-        <v>42241</v>
-      </c>
-      <c r="B69" s="21" t="s">
+      <c r="D79" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="19" t="s">
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="20">
+        <v>605156</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15">
-      <c r="A70" s="20">
-        <v>605156</v>
-      </c>
-      <c r="B70" s="21" t="s">
+      <c r="D80" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="E80" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15">
+      <c r="A81" s="20">
+        <v>602559</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15">
-      <c r="A71" s="20">
-        <v>602559</v>
-      </c>
-      <c r="B71" s="21" t="s">
+      <c r="D81" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="G81" s="34"/>
+    </row>
+    <row r="82" spans="1:7" ht="15">
+      <c r="A82" s="20">
+        <v>605850</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G71" s="34"/>
-    </row>
-    <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="20">
-        <v>605850</v>
-      </c>
-      <c r="B72" s="21" t="s">
+      <c r="D82" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="E82" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15">
+      <c r="A83" s="20">
+        <v>602094</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15">
-      <c r="A73" s="20">
-        <v>602094</v>
-      </c>
-      <c r="B73" s="21" t="s">
+      <c r="D83" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="19" t="s">
+    </row>
+    <row r="84" spans="1:7" ht="15">
+      <c r="A84" s="22">
+        <v>605905</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15">
-      <c r="A74" s="22">
-        <v>605905</v>
-      </c>
-      <c r="B74" s="31" t="s">
+      <c r="D84" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="24" t="s">
+    </row>
+    <row r="85" spans="1:7" s="46" customFormat="1" ht="15">
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+    </row>
+    <row r="86" spans="1:7" ht="15">
+      <c r="A86" s="36"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="38" t="s">
+      <c r="D86" s="38"/>
+      <c r="E86" s="39"/>
+    </row>
+    <row r="87" spans="1:7" ht="15">
+      <c r="A87" s="25">
+        <v>52983</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
-    </row>
-    <row r="76" spans="1:7" ht="15">
-      <c r="A76" s="25">
-        <v>52983</v>
-      </c>
-      <c r="B76" s="26" t="s">
+      <c r="C87" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="D87" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="E87" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E76" s="27" t="s">
+    </row>
+    <row r="88" spans="1:7" ht="15">
+      <c r="A88" s="25">
+        <v>600168</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15">
-      <c r="A77" s="25">
-        <v>600168</v>
-      </c>
-      <c r="B77" s="26" t="s">
+      <c r="C88" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C77" s="27" t="s">
+    </row>
+    <row r="89" spans="1:7" ht="15">
+      <c r="A89" s="25">
+        <v>601079</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="E89" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15">
+      <c r="A90" s="25">
+        <v>602606</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15">
+      <c r="A91" s="25">
+        <v>603829</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15">
+      <c r="A92" s="25">
+        <v>601864</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15">
+      <c r="A93" s="25">
+        <v>605397</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15">
+      <c r="A94" s="25">
+        <v>37065</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15">
+      <c r="A95" s="25">
+        <v>602337</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15">
+      <c r="A96" s="25">
+        <v>604825</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E77" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15">
-      <c r="A78" s="25">
-        <v>601079</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" s="27" t="s">
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="28">
+        <v>601587</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D78" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15">
-      <c r="A79" s="25">
-        <v>602606</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="25">
-        <v>603829</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="25">
-        <v>601864</v>
-      </c>
-      <c r="B81" s="26" t="s">
+      <c r="E97" s="30" t="s">
         <v>190</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="25">
-        <v>605397</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="25">
-        <v>37065</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="25">
-        <v>602337</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="25">
-        <v>604825</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="28">
-        <v>601587</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15">
-      <c r="A87" s="3">
-        <v>606139</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="3">
-        <v>605304</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="3">
-        <v>605104</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="3">
-        <v>39165</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="3">
-        <v>46639</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15">
-      <c r="A92" s="3">
-        <v>55078</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="A93" s="3">
-        <v>601144</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="3">
-        <v>601749</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="3">
-        <v>602123</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="3">
-        <v>602232</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="3">
-        <v>602321</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15">
       <c r="A98" s="3">
-        <v>602775</v>
+        <v>606139</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15">
       <c r="A99" s="3">
-        <v>603425</v>
+        <v>605304</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15">
       <c r="A100" s="3">
+        <v>605104</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="3">
+        <v>39165</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="3">
+        <v>46639</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15">
+      <c r="A103" s="3">
+        <v>55078</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15">
+      <c r="A104" s="3">
+        <v>601144</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15">
+      <c r="A105" s="3">
+        <v>601749</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15">
+      <c r="A106" s="3">
+        <v>602123</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="3">
+        <v>602232</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" s="3">
+        <v>602321</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15">
+      <c r="A109" s="3">
+        <v>602775</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15">
+      <c r="A110" s="3">
+        <v>603425</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15">
+      <c r="A111" s="3">
         <v>604052</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B111" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="6" t="s">
+    </row>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" s="12">
+        <v>604709</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="12">
-        <v>604709</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>211</v>
+      <c r="D112" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/empleados.xlsx
+++ b/empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DD5F62W\OneDrive - Volkswagen AG\Escritorio\MIS COSAS\MFQ\asignador_personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84678BD-7011-498E-B39B-5813B70AE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B75D9-DCB2-41E8-9BE1-B59652416A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="165" windowWidth="13875" windowHeight="17130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="315">
   <si>
     <t>NIE</t>
   </si>
@@ -959,12 +959,144 @@
   <si>
     <t>2.5, TW2</t>
   </si>
+  <si>
+    <t>CASQUETE SOL, Isabel</t>
+  </si>
+  <si>
+    <t>OCARIZ OZCOIDI, Elena</t>
+  </si>
+  <si>
+    <t>LECUMBERRI CANO, Sergio</t>
+  </si>
+  <si>
+    <t>ALBIZU SANZ, Ignacio</t>
+  </si>
+  <si>
+    <t>MALAGUILLA GARRIDO, Ramón</t>
+  </si>
+  <si>
+    <t>MANRIQUE PÉREZ, Fermin</t>
+  </si>
+  <si>
+    <t>BERENGUER SANTOS, Javier</t>
+  </si>
+  <si>
+    <t>CAMPANON FRANCO, Tomas</t>
+  </si>
+  <si>
+    <t>VICENTE JAURRIETA, Oscar</t>
+  </si>
+  <si>
+    <t>AYANZ ALBERDI  EDUARDO</t>
+  </si>
+  <si>
+    <t>MIRANDA APEZARENA ANDER</t>
+  </si>
+  <si>
+    <t>NAVARRETE  POZA DANIEL</t>
+  </si>
+  <si>
+    <t>3.4, TW2</t>
+  </si>
+  <si>
+    <t>Zona 1, Puertas</t>
+  </si>
+  <si>
+    <t>1.2, Cajetines</t>
+  </si>
+  <si>
+    <t>Zona 5, Puertas</t>
+  </si>
+  <si>
+    <t>5.2, Cristales</t>
+  </si>
+  <si>
+    <t>ASOREY BALLANO VANESSA</t>
+  </si>
+  <si>
+    <t>ALASTUEY RUIZ IÑAKI</t>
+  </si>
+  <si>
+    <t>2.1, TW2</t>
+  </si>
+  <si>
+    <t>Zona 6, Puertas</t>
+  </si>
+  <si>
+    <t>6.1, Altavoces</t>
+  </si>
+  <si>
+    <t>BIDAURRE VALVERDE ASIER</t>
+  </si>
+  <si>
+    <t>DELGADO ORTEGA ELENA</t>
+  </si>
+  <si>
+    <t>GOMEZ GARCES DEL GARRO JOAQUIN</t>
+  </si>
+  <si>
+    <t>SILVA HERNANDEZ  ORLANDO</t>
+  </si>
+  <si>
+    <t>Zona 3, Puertas</t>
+  </si>
+  <si>
+    <t>3.5, Paneles</t>
+  </si>
+  <si>
+    <t>6.2, Cajetines</t>
+  </si>
+  <si>
+    <t>6.4, Cristales</t>
+  </si>
+  <si>
+    <t>1.7, Radiador</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ  MARTINEZ ALBERTO</t>
+  </si>
+  <si>
+    <t>Zona 6, Motores</t>
+  </si>
+  <si>
+    <t>6.7, Consola</t>
+  </si>
+  <si>
+    <t>FERNANDEZ SALINAS JOSE IGNACIO</t>
+  </si>
+  <si>
+    <t>5.8, Paneles</t>
+  </si>
+  <si>
+    <t>VALDEMOROS RODRIGUEZ  MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>1.2, Grupo 3</t>
+  </si>
+  <si>
+    <t>CARTE RODRIGUEZ  MARIA</t>
+  </si>
+  <si>
+    <t>NUIN SAENZ GORKA</t>
+  </si>
+  <si>
+    <t>ONIEVA VILCHES JULEN</t>
+  </si>
+  <si>
+    <t>2.4, Palieres</t>
+  </si>
+  <si>
+    <t>2.5, Radiador</t>
+  </si>
+  <si>
+    <t>5.8, Consola</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1045,8 +1177,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,8 +1232,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1232,11 +1381,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1365,6 +1622,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,10 +1874,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1761,500 +2051,502 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="3">
-        <v>52308</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="11">
+        <v>34307</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="47">
-        <v>604966</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>241</v>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="3">
+        <v>52308</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>605754</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
+      <c r="A12" s="47">
+        <v>604966</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>241</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="12">
-        <v>603268</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="11">
+        <v>605754</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>30</v>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="17">
-        <v>601814</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>33</v>
+      <c r="A14" s="12">
+        <v>603268</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="20">
-        <v>602418</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>34</v>
+      <c r="A15" s="17">
+        <v>601814</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="20">
-        <v>601334</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>37</v>
+        <v>602418</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="20">
-        <v>604507</v>
+        <v>601334</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="20">
-        <v>601999</v>
+        <v>604507</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="20">
-        <v>604681</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>45</v>
+        <v>601999</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="20">
-        <v>605400</v>
+        <v>604681</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="20">
-        <v>602228</v>
+        <v>605400</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="49">
-        <v>605650</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>243</v>
+      <c r="A22" s="20">
+        <v>602454</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>275</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="49">
-        <v>602703</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>244</v>
+      <c r="A23" s="20">
+        <v>602228</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="49">
-        <v>605732</v>
+        <v>605650</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="20">
-        <v>606235</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>54</v>
+      <c r="A25" s="49">
+        <v>602703</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>244</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="49">
+        <v>605732</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="20">
+        <v>606235</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E27" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="22">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="22">
         <v>601767</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B28" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="25">
-        <v>605767</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="25">
-        <v>605826</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="25">
-        <v>603125</v>
+        <v>605767</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="25">
-        <v>602390</v>
+        <v>605826</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="25">
-        <v>605874</v>
+        <v>603125</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>249</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="25">
-        <v>604545</v>
+        <v>602390</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="25">
-        <v>603662</v>
+        <v>605874</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="25">
-        <v>606061</v>
+        <v>604545</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="25">
-        <v>605875</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>232</v>
+      <c r="A35" s="59">
+        <v>601936</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>288</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="25">
-        <v>605029</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>233</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="61">
+        <v>49085</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="25">
-        <v>607142</v>
+        <v>603662</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="25">
-        <v>605826</v>
+        <v>606061</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>55</v>
@@ -2263,1249 +2555,1657 @@
         <v>73</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="25">
-        <v>603885</v>
+        <v>605875</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="25">
+        <v>605029</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="25">
+        <v>607142</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="25">
+        <v>600448</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="25">
+        <v>605826</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="25">
+        <v>603885</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E44" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="28">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="28">
         <v>604724</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B45" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C45" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D45" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="3">
         <v>601691</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="3">
         <v>604051</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="3">
+        <v>603012</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="59">
+        <v>606180</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="59">
+        <v>606118</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="59">
+        <v>605094</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="59">
+        <v>605430</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="3">
+        <v>36373</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="3">
+        <v>602497</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="3">
         <v>605090</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="12">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="12">
         <v>604696</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E56" s="15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="20">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="20">
         <v>601854</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E57" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="20">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="20">
         <v>602201</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B58" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C58" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E58" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="20">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="20">
         <v>600752</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B59" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D59" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E59" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="51">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="51">
         <v>605341</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B60" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D60" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E60" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="51">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="51">
         <v>605749</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B61" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D61" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E61" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="51">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="51">
         <v>605751</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B62" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C62" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D62" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E62" s="19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="20">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="20">
         <v>605877</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B63" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E63" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="20">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="20">
         <v>604498</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B64" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D64" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E64" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="20">
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="20">
         <v>605352</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B65" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D65" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E65" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="22">
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="22">
         <v>47980</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B66" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C66" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D66" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E66" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="25">
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="25">
         <v>604636</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B67" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C67" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D67" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E67" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="25">
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="25">
         <v>605498</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B68" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C68" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D68" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E68" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="25">
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="25">
         <v>606231</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B69" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C69" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D69" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E69" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="51">
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="51">
         <v>603464</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B70" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C70" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D70" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E70" s="27" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="51">
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="51">
         <v>605394</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B71" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C71" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D71" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E71" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="25">
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="25">
         <v>600439</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B72" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C72" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D72" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E72" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="25">
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="25">
         <v>604616</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B73" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C73" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D73" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E73" s="27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="25">
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="25">
         <v>602514</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B74" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C74" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D74" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E74" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="25">
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="25">
+        <v>602829</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="25">
+        <v>602514</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="25">
         <v>605519</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B77" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C77" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D77" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E77" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="25">
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="25">
         <v>602264</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B78" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C78" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D78" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E78" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="25">
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="25">
         <v>603268</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B79" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C79" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D79" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E79" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="28">
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="28">
         <v>604771</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B80" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D80" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="3">
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="3">
         <v>602663</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="3">
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="3">
         <v>601830</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="3">
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="3">
         <v>602341</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="3">
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="3">
         <v>605276</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:5" thickBot="1">
-      <c r="A71" s="53">
+    <row r="85" spans="1:5" thickBot="1">
+      <c r="A85" s="53">
         <v>605854</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B85" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="3">
+    <row r="86" spans="1:5" thickBot="1">
+      <c r="A86" s="3">
         <v>605651</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="3">
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="55">
+        <v>603446</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="57">
+        <v>605346</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="57">
+        <v>605101</v>
+      </c>
+      <c r="B89" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="3">
+        <v>46139</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="59">
+        <v>603281</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="3">
         <v>605169</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="3">
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="3">
         <v>605355</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15">
-      <c r="A75" s="12">
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="12">
         <v>604717</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B94" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D94" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E94" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="20">
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="20">
         <v>602204</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B95" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C95" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D95" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E95" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="20">
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="20">
         <v>604910</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B96" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C96" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D96" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E96" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="20">
+    <row r="97" spans="1:7" ht="15">
+      <c r="A97" s="20">
         <v>603604</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B97" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C97" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D97" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E97" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="20">
+    <row r="98" spans="1:7" ht="15">
+      <c r="A98" s="20">
         <v>42241</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B98" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C98" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D98" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E98" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="20">
+    <row r="99" spans="1:7" ht="15">
+      <c r="A99" s="57">
+        <v>605476</v>
+      </c>
+      <c r="B99" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15">
+      <c r="A100" s="20">
         <v>605156</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B100" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C100" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D100" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E100" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15">
-      <c r="A81" s="20">
+    <row r="101" spans="1:7" ht="15">
+      <c r="A101" s="20">
         <v>602559</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B101" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D101" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E101" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G81" s="34"/>
-    </row>
-    <row r="82" spans="1:7" ht="15">
-      <c r="A82" s="20">
+      <c r="G101" s="34"/>
+    </row>
+    <row r="102" spans="1:7" ht="15">
+      <c r="A102" s="20">
         <v>605850</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B102" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C102" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D102" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E102" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15">
-      <c r="A83" s="20">
+    <row r="103" spans="1:7" ht="15">
+      <c r="A103" s="20">
         <v>602094</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B103" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C103" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D103" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E103" s="19" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15">
-      <c r="A84" s="22">
+    <row r="104" spans="1:7" ht="15">
+      <c r="A104" s="22">
         <v>605905</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B104" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C104" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D104" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E104" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="46" customFormat="1" ht="15">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="44" t="s">
+    <row r="105" spans="1:7" s="46" customFormat="1" ht="15">
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-    </row>
-    <row r="86" spans="1:7" ht="15">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="38" t="s">
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+    </row>
+    <row r="106" spans="1:7" ht="15">
+      <c r="A106" s="36"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
-    </row>
-    <row r="87" spans="1:7" ht="15">
-      <c r="A87" s="25">
+      <c r="D106" s="38"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="107" spans="1:7" ht="15">
+      <c r="A107" s="25">
         <v>52983</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C107" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D107" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E107" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15">
-      <c r="A88" s="25">
+    <row r="108" spans="1:7" ht="15">
+      <c r="A108" s="25">
         <v>600168</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B108" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C108" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D108" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E108" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
-      <c r="A89" s="25">
+    <row r="109" spans="1:7" ht="15">
+      <c r="A109" s="25">
         <v>601079</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B109" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C109" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D109" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E109" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
-      <c r="A90" s="25">
+    <row r="110" spans="1:7" ht="15">
+      <c r="A110" s="25">
         <v>602606</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B110" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C110" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D110" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E110" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15">
-      <c r="A91" s="25">
+    <row r="111" spans="1:7" ht="15">
+      <c r="A111" s="25">
         <v>603829</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B111" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C111" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D111" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="27" t="s">
+      <c r="E111" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15">
-      <c r="A92" s="25">
+    <row r="112" spans="1:7" ht="15">
+      <c r="A112" s="57">
+        <v>52830</v>
+      </c>
+      <c r="B112" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15">
+      <c r="A113" s="25">
         <v>601864</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B113" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C113" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D113" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E113" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15">
-      <c r="A93" s="25">
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="25">
         <v>605397</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B114" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C114" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D114" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E114" s="27" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15">
-      <c r="A94" s="25">
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" s="25">
         <v>37065</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B115" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C115" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D115" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E115" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15">
-      <c r="A95" s="25">
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="25">
         <v>602337</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B116" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C116" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D116" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E116" s="27" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
-      <c r="A96" s="25">
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" s="25">
         <v>604825</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B117" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C117" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D117" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E117" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="28">
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="28">
         <v>601587</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B118" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C118" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D118" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E118" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="3">
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" s="3">
         <v>606139</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B119" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D119" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="3">
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="3">
         <v>605304</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="3">
+    <row r="121" spans="1:5" ht="15">
+      <c r="A121" s="3">
         <v>605104</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="3">
+    <row r="122" spans="1:5" ht="15">
+      <c r="A122" s="3">
         <v>39165</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D122" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15">
-      <c r="A102" s="3">
+    <row r="123" spans="1:5" ht="15">
+      <c r="A123" s="3">
         <v>46639</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D123" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="A103" s="3">
+    <row r="124" spans="1:5" ht="15">
+      <c r="A124" s="3">
         <v>55078</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B124" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E124" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15">
-      <c r="A104" s="3">
+    <row r="125" spans="1:5" ht="15">
+      <c r="A125" s="57">
+        <v>604953</v>
+      </c>
+      <c r="B125" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" s="57">
+        <v>605793</v>
+      </c>
+      <c r="B126" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15">
+      <c r="A127" s="64">
+        <v>605771</v>
+      </c>
+      <c r="B127" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="3">
         <v>601144</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B128" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E128" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15">
-      <c r="A105" s="3">
+    <row r="129" spans="1:5" ht="15">
+      <c r="A129" s="3">
         <v>601749</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D129" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15">
-      <c r="A106" s="3">
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" s="3">
         <v>602123</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E130" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15">
-      <c r="A107" s="3">
+    <row r="131" spans="1:5" ht="15">
+      <c r="A131" s="3">
         <v>602232</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B131" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C131" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15">
-      <c r="A108" s="3">
+    <row r="132" spans="1:5" ht="15">
+      <c r="A132" s="3">
         <v>602321</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B132" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C132" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D132" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E132" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15">
-      <c r="A109" s="3">
+    <row r="133" spans="1:5" ht="15">
+      <c r="A133" s="3">
         <v>602775</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C133" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D133" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E133" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15">
-      <c r="A110" s="3">
+    <row r="134" spans="1:5" ht="15">
+      <c r="A134" s="3">
         <v>603425</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B134" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15">
-      <c r="A111" s="3">
+    <row r="135" spans="1:5" ht="15">
+      <c r="A135" s="3">
         <v>604052</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C135" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D135" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E135" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15">
-      <c r="A112" s="12">
+    <row r="136" spans="1:5" ht="15">
+      <c r="A136" s="12">
         <v>604709</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B136" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C136" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D136" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E136" s="15" t="s">
         <v>210</v>
       </c>
     </row>
